--- a/docs/DBの正規化とは.xlsx
+++ b/docs/DBの正規化とは.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N_hashimoto\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N_hashimoto\Downloads\db-normalization\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{C1E8284A-2592-430D-B456-A16B62CA5612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD055D0D-9888-458A-A6D0-A741101E2230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="正規化とは" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="149">
   <si>
     <t>受注No.</t>
   </si>
@@ -378,10 +378,6 @@
     <rPh sb="4" eb="5">
       <t>ケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ここでは、表１の乱雑なテーブルを受注No.と顧客の情報がまとめられた表2-1と各注文でどのような商品がどの程度購入されたのかを示す表2-2に分けている。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -946,11 +942,19 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ここでは、「受注テーブル（非正規状態）」の乱雑なテーブルを2つに分割した。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つは受注No.と顧客の情報がまとめられた「受注テーブル」。そしてもう1つのテーブル、各注文でどのような商品がどの程度購入されたのかを示す「受注明細テーブル」に分けている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2413,7 +2417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2498,7 +2502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2514,27 +2518,27 @@
         <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
@@ -2542,57 +2546,57 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C20" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C22" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2602,7 +2606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2665,7 +2669,7 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2852,7 +2856,7 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="E17" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2925,12 +2929,12 @@
         <v>26</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.4">
       <c r="C28" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H28" s="2"/>
       <c r="T28" s="1"/>
@@ -2976,7 +2980,7 @@
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C35" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H35" s="2"/>
       <c r="T35" s="1"/>
@@ -2998,7 +3002,7 @@
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C39" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H39" s="2"/>
       <c r="T39" s="1"/>
@@ -3018,7 +3022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B5:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3095,8 +3099,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AK33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:AK34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3162,7 +3166,7 @@
       <c r="G8" s="2"/>
       <c r="S8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.4">
@@ -3170,12 +3174,12 @@
       <c r="G9" s="2"/>
       <c r="S9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.4">
       <c r="E10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="2"/>
       <c r="R10" s="1"/>
@@ -3648,7 +3652,7 @@
     <row r="27" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3664,63 +3668,83 @@
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.4">
-      <c r="G28" s="2"/>
-      <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
+    <row r="28" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.4">
+      <c r="G29" s="2"/>
+      <c r="U29" s="2"/>
+    </row>
+    <row r="30" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.4">
+      <c r="C31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.4">
-      <c r="C30" s="1" t="s">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="3:37" x14ac:dyDescent="0.4">
+      <c r="C33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="S31" s="1"/>
-    </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.4">
-      <c r="C32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="20:37" x14ac:dyDescent="0.4">
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
+    </row>
+    <row r="34" spans="3:37" x14ac:dyDescent="0.4">
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3748,14 +3772,14 @@
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.4">
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2"/>
       <c r="O4" s="1"/>
@@ -3777,7 +3801,7 @@
         <v>38</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.4">
@@ -3788,7 +3812,7 @@
       <c r="L7" s="1"/>
       <c r="O7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.4">
@@ -3818,7 +3842,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="S9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -4039,7 +4063,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="S18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -4248,10 +4272,10 @@
     <row r="27" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -4266,7 +4290,7 @@
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.4">
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S28" s="2"/>
       <c r="W28" s="2"/>
@@ -4286,7 +4310,7 @@
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.4">
       <c r="D30" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S30" s="2"/>
       <c r="W30" s="2"/>
@@ -4297,7 +4321,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -4320,7 +4344,7 @@
     </row>
     <row r="33" spans="4:25" x14ac:dyDescent="0.4">
       <c r="D33" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V33" s="2"/>
       <c r="X33" s="2"/>
@@ -4328,7 +4352,7 @@
     </row>
     <row r="34" spans="4:25" x14ac:dyDescent="0.4">
       <c r="D34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4339,7 +4363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:AB39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -4367,7 +4391,7 @@
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -4376,19 +4400,19 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.4">
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.4">
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.4">
@@ -4396,7 +4420,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -4407,7 +4431,7 @@
         <v>38</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.4">
@@ -4417,7 +4441,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.4">
@@ -4430,7 +4454,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.4">
@@ -4587,7 +4611,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -4736,7 +4760,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M27" s="1"/>
       <c r="O27" s="1"/>
@@ -4886,7 +4910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:AB39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -4909,19 +4933,19 @@
         <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2"/>
       <c r="O4" s="1"/>
@@ -5113,7 +5137,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -5187,7 +5211,7 @@
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.4">
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -5279,7 +5303,7 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.4">
       <c r="C32" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y32" s="2"/>
     </row>
@@ -5343,7 +5367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5361,17 +5385,17 @@
         <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
@@ -5379,27 +5403,27 @@
         <v>38</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -5408,91 +5432,91 @@
         <v>60</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E14" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E15" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E16" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.4">
       <c r="E17" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D21" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5502,7 +5526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5518,27 +5542,27 @@
         <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
@@ -5546,32 +5570,32 @@
         <v>38</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
